--- a/save.xlsx
+++ b/save.xlsx
@@ -29,343 +29,343 @@
     <t>第1組</t>
   </si>
   <si>
+    <t>11687023</t>
+  </si>
+  <si>
+    <t>鄒O誼</t>
+  </si>
+  <si>
+    <t>第2組</t>
+  </si>
+  <si>
+    <t>09131655</t>
+  </si>
+  <si>
+    <t>張O展</t>
+  </si>
+  <si>
+    <t>第3組</t>
+  </si>
+  <si>
+    <t>10130440</t>
+  </si>
+  <si>
+    <t>許O德</t>
+  </si>
+  <si>
+    <t>第4組</t>
+  </si>
+  <si>
+    <t>09130324</t>
+  </si>
+  <si>
+    <t>徐O威</t>
+  </si>
+  <si>
+    <t>第5組</t>
+  </si>
+  <si>
+    <t>12131015</t>
+  </si>
+  <si>
+    <t>陳O銘</t>
+  </si>
+  <si>
+    <t>第6組</t>
+  </si>
+  <si>
+    <t>12130712</t>
+  </si>
+  <si>
+    <t>徐O睿</t>
+  </si>
+  <si>
+    <t>第7組</t>
+  </si>
+  <si>
+    <t>12131060</t>
+  </si>
+  <si>
+    <t>陳O瑀</t>
+  </si>
+  <si>
+    <t>第8組</t>
+  </si>
+  <si>
+    <t>12131316</t>
+  </si>
+  <si>
+    <t>黃O洋</t>
+  </si>
+  <si>
+    <t>第9組</t>
+  </si>
+  <si>
+    <t>12130411</t>
+  </si>
+  <si>
+    <t>陳O綺</t>
+  </si>
+  <si>
+    <t>第10組</t>
+  </si>
+  <si>
+    <t>12131006</t>
+  </si>
+  <si>
+    <t>孫O霖</t>
+  </si>
+  <si>
+    <t>第11組</t>
+  </si>
+  <si>
+    <t>12131085</t>
+  </si>
+  <si>
+    <t>朱O瑄</t>
+  </si>
+  <si>
+    <t>第12組</t>
+  </si>
+  <si>
+    <t>12130196</t>
+  </si>
+  <si>
+    <t>吳O蓁</t>
+  </si>
+  <si>
+    <t>第13組</t>
+  </si>
+  <si>
+    <t>12130420</t>
+  </si>
+  <si>
+    <t>簡O修</t>
+  </si>
+  <si>
+    <t>第14組</t>
+  </si>
+  <si>
+    <t>12130135</t>
+  </si>
+  <si>
+    <t>黃O瑄</t>
+  </si>
+  <si>
+    <t>第15組</t>
+  </si>
+  <si>
+    <t>12130206</t>
+  </si>
+  <si>
+    <t>沈O伊</t>
+  </si>
+  <si>
+    <t>第16組</t>
+  </si>
+  <si>
+    <t>12130915</t>
+  </si>
+  <si>
+    <t>黃O翔</t>
+  </si>
+  <si>
+    <t>第2次</t>
+  </si>
+  <si>
     <t>10133061</t>
   </si>
   <si>
-    <t>曾鈺霜</t>
-  </si>
-  <si>
-    <t>第2組</t>
-  </si>
-  <si>
-    <t>09131655</t>
-  </si>
-  <si>
-    <t>張嘉展</t>
-  </si>
-  <si>
-    <t>第3組</t>
-  </si>
-  <si>
-    <t>10130440</t>
-  </si>
-  <si>
-    <t>許孝德</t>
-  </si>
-  <si>
-    <t>第4組</t>
-  </si>
-  <si>
-    <t>09130324</t>
-  </si>
-  <si>
-    <t>徐盛威</t>
-  </si>
-  <si>
-    <t>第5組</t>
-  </si>
-  <si>
-    <t>12131015</t>
-  </si>
-  <si>
-    <t>陳奕銘</t>
-  </si>
-  <si>
-    <t>第6組</t>
-  </si>
-  <si>
-    <t>12130712</t>
-  </si>
-  <si>
-    <t>徐聰睿</t>
-  </si>
-  <si>
-    <t>第7組</t>
-  </si>
-  <si>
-    <t>12131060</t>
-  </si>
-  <si>
-    <t>陳宣瑀</t>
-  </si>
-  <si>
-    <t>第8組</t>
+    <t>曾O霜</t>
+  </si>
+  <si>
+    <t>11130660</t>
+  </si>
+  <si>
+    <t>謝O珉</t>
+  </si>
+  <si>
+    <t>10131612</t>
+  </si>
+  <si>
+    <t>林O銳</t>
+  </si>
+  <si>
+    <t>09170963</t>
+  </si>
+  <si>
+    <t>田O宸</t>
+  </si>
+  <si>
+    <t>12131131</t>
+  </si>
+  <si>
+    <t>朱O人</t>
+  </si>
+  <si>
+    <t>12130976</t>
+  </si>
+  <si>
+    <t>徐O賢</t>
+  </si>
+  <si>
+    <t>12131290</t>
+  </si>
+  <si>
+    <t>李O隆</t>
   </si>
   <si>
     <t>12130445</t>
   </si>
   <si>
-    <t>王麒瑋</t>
-  </si>
-  <si>
-    <t>第9組</t>
-  </si>
-  <si>
-    <t>12130411</t>
-  </si>
-  <si>
-    <t>陳若綺</t>
-  </si>
-  <si>
-    <t>第10組</t>
-  </si>
-  <si>
-    <t>12131006</t>
-  </si>
-  <si>
-    <t>孫坤霖</t>
-  </si>
-  <si>
-    <t>第11組</t>
-  </si>
-  <si>
-    <t>12131085</t>
-  </si>
-  <si>
-    <t>朱紫瑄</t>
-  </si>
-  <si>
-    <t>第12組</t>
-  </si>
-  <si>
-    <t>12130196</t>
-  </si>
-  <si>
-    <t>吳昀蓁</t>
-  </si>
-  <si>
-    <t>第13組</t>
-  </si>
-  <si>
-    <t>12130420</t>
-  </si>
-  <si>
-    <t>簡翊修</t>
-  </si>
-  <si>
-    <t>第14組</t>
-  </si>
-  <si>
-    <t>12130135</t>
-  </si>
-  <si>
-    <t>黃翊瑄</t>
-  </si>
-  <si>
-    <t>第15組</t>
-  </si>
-  <si>
-    <t>12130206</t>
-  </si>
-  <si>
-    <t>沈婕伊</t>
-  </si>
-  <si>
-    <t>第16組</t>
-  </si>
-  <si>
-    <t>12130915</t>
-  </si>
-  <si>
-    <t>黃瑀翔</t>
-  </si>
-  <si>
-    <t>第2次</t>
+    <t>王O瑋</t>
+  </si>
+  <si>
+    <t>12130543</t>
+  </si>
+  <si>
+    <t>朱O萱</t>
+  </si>
+  <si>
+    <t>12131140</t>
+  </si>
+  <si>
+    <t>蕭O毅</t>
+  </si>
+  <si>
+    <t>12131626</t>
+  </si>
+  <si>
+    <t>羅O閔</t>
+  </si>
+  <si>
+    <t>12130871</t>
+  </si>
+  <si>
+    <t>方O麟</t>
+  </si>
+  <si>
+    <t>12130880</t>
+  </si>
+  <si>
+    <t>陳O愷</t>
+  </si>
+  <si>
+    <t>12130374</t>
+  </si>
+  <si>
+    <t>宋O頡</t>
+  </si>
+  <si>
+    <t>12130454</t>
+  </si>
+  <si>
+    <t>侯O鈞</t>
+  </si>
+  <si>
+    <t>12131254</t>
+  </si>
+  <si>
+    <t>陳O宏</t>
+  </si>
+  <si>
+    <t>第3次</t>
   </si>
   <si>
     <t>10133672</t>
   </si>
   <si>
-    <t>洪梓桓</t>
-  </si>
-  <si>
-    <t>11130660</t>
-  </si>
-  <si>
-    <t>謝昱珉</t>
-  </si>
-  <si>
-    <t>10131612</t>
-  </si>
-  <si>
-    <t>林奕銳</t>
-  </si>
-  <si>
-    <t>09170963</t>
-  </si>
-  <si>
-    <t>田裕宸</t>
-  </si>
-  <si>
-    <t>12131131</t>
-  </si>
-  <si>
-    <t>朱俊人</t>
-  </si>
-  <si>
-    <t>12130976</t>
-  </si>
-  <si>
-    <t>徐宇賢</t>
-  </si>
-  <si>
-    <t>12131290</t>
-  </si>
-  <si>
-    <t>李坤隆</t>
+    <t>洪O桓</t>
+  </si>
+  <si>
+    <t>11133015</t>
+  </si>
+  <si>
+    <t>吳O武</t>
+  </si>
+  <si>
+    <t>10521046</t>
+  </si>
+  <si>
+    <t>邱O昕</t>
+  </si>
+  <si>
+    <t>10130235</t>
+  </si>
+  <si>
+    <t>楊O媁</t>
+  </si>
+  <si>
+    <t>12131601</t>
+  </si>
+  <si>
+    <t>柳O璋</t>
+  </si>
+  <si>
+    <t>12131361</t>
+  </si>
+  <si>
+    <t>楊O恩</t>
+  </si>
+  <si>
+    <t>12131610</t>
+  </si>
+  <si>
+    <t>易O伸</t>
   </si>
   <si>
     <t>12130561</t>
   </si>
   <si>
-    <t>邵立翔</t>
-  </si>
-  <si>
-    <t>12130543</t>
-  </si>
-  <si>
-    <t>朱筱萱</t>
-  </si>
-  <si>
-    <t>12131140</t>
-  </si>
-  <si>
-    <t>蕭源毅</t>
-  </si>
-  <si>
-    <t>12131626</t>
-  </si>
-  <si>
-    <t>羅揚閔</t>
-  </si>
-  <si>
-    <t>12130871</t>
-  </si>
-  <si>
-    <t>方祥麟</t>
-  </si>
-  <si>
-    <t>12130880</t>
-  </si>
-  <si>
-    <t>陳翊愷</t>
-  </si>
-  <si>
-    <t>12130374</t>
-  </si>
-  <si>
-    <t>宋柔頡</t>
-  </si>
-  <si>
-    <t>12130454</t>
-  </si>
-  <si>
-    <t>侯幃鈞</t>
-  </si>
-  <si>
-    <t>12131254</t>
-  </si>
-  <si>
-    <t>陳佳宏</t>
-  </si>
-  <si>
-    <t>第3次</t>
-  </si>
-  <si>
-    <t>11687023</t>
-  </si>
-  <si>
-    <t>鄒德誼</t>
-  </si>
-  <si>
-    <t>11133015</t>
-  </si>
-  <si>
-    <t>吳哲武</t>
-  </si>
-  <si>
-    <t>10521046</t>
-  </si>
-  <si>
-    <t>邱晏昕</t>
-  </si>
-  <si>
-    <t>10130235</t>
-  </si>
-  <si>
-    <t>楊舒媁</t>
-  </si>
-  <si>
-    <t>12131601</t>
-  </si>
-  <si>
-    <t>柳宏璋</t>
-  </si>
-  <si>
-    <t>12131361</t>
-  </si>
-  <si>
-    <t>楊宗恩</t>
-  </si>
-  <si>
-    <t>12131610</t>
-  </si>
-  <si>
-    <t>易峻伸</t>
-  </si>
-  <si>
-    <t>12131316</t>
-  </si>
-  <si>
-    <t>黃俊洋</t>
+    <t>邵O翔</t>
   </si>
   <si>
     <t>12130684</t>
   </si>
   <si>
-    <t>黃品涵</t>
+    <t>黃O涵</t>
   </si>
   <si>
     <t>12131236</t>
   </si>
   <si>
-    <t>邱思祐</t>
+    <t>邱O祐</t>
   </si>
   <si>
     <t>12131635</t>
   </si>
   <si>
-    <t>蔡定燁</t>
+    <t>蔡O燁</t>
   </si>
   <si>
     <t>12131183</t>
   </si>
   <si>
-    <t>楊旻芯</t>
+    <t>楊O芯</t>
   </si>
   <si>
     <t>12131582</t>
   </si>
   <si>
-    <t>李易桓</t>
+    <t>李O桓</t>
   </si>
   <si>
     <t>12131573</t>
   </si>
   <si>
-    <t>吳旻翰</t>
+    <t>吳O翰</t>
   </si>
   <si>
     <t>12130552</t>
   </si>
   <si>
-    <t>萬尹甄</t>
+    <t>萬O甄</t>
   </si>
   <si>
     <t>12131386</t>
   </si>
   <si>
-    <t>許凱倫</t>
+    <t>許O倫</t>
   </si>
 </sst>
 </file>
